--- a/Floor_1/Left_wing.xlsx
+++ b/Floor_1/Left_wing.xlsx
@@ -26,17 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -470,7 +464,6 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,7 +471,6 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -486,7 +478,6 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -494,7 +485,6 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -502,7 +492,6 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -510,7 +499,6 @@
           <t>6.10</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -518,7 +506,6 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -526,7 +513,6 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,7 +520,6 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -542,7 +527,6 @@
           <t>10.10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -550,7 +534,6 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -558,7 +541,6 @@
           <t>12.10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -566,7 +548,6 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -574,7 +555,6 @@
           <t>14.10</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -582,7 +562,6 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -590,7 +569,6 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -598,7 +576,6 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -606,7 +583,6 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -614,7 +590,6 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -622,7 +597,6 @@
           <t>20.10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -630,7 +604,6 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -638,7 +611,6 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -646,7 +618,6 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -654,7 +625,6 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -662,7 +632,6 @@
           <t>25.10</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -670,7 +639,6 @@
           <t>26.10</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -678,7 +646,6 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -686,7 +653,6 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -694,7 +660,6 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -702,7 +667,6 @@
           <t>30.10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -710,7 +674,6 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Floor_1/Left_wing.xlsx
+++ b/Floor_1/Left_wing.xlsx
@@ -26,12 +26,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,6 +470,7 @@
           <t>1.10</t>
         </is>
       </c>
+      <c r="E2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +478,7 @@
           <t>2.10</t>
         </is>
       </c>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -478,6 +486,7 @@
           <t>3.10</t>
         </is>
       </c>
+      <c r="G4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -485,6 +494,7 @@
           <t>4.10</t>
         </is>
       </c>
+      <c r="H5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +502,7 @@
           <t>5.10</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -499,6 +510,7 @@
           <t>6.10</t>
         </is>
       </c>
+      <c r="C7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -506,6 +518,7 @@
           <t>7.10</t>
         </is>
       </c>
+      <c r="D8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -513,6 +526,7 @@
           <t>8.10</t>
         </is>
       </c>
+      <c r="E9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -520,6 +534,7 @@
           <t>9.10</t>
         </is>
       </c>
+      <c r="F10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -527,6 +542,7 @@
           <t>10.10</t>
         </is>
       </c>
+      <c r="G11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -534,6 +550,7 @@
           <t>11.10</t>
         </is>
       </c>
+      <c r="H12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -541,6 +558,7 @@
           <t>12.10</t>
         </is>
       </c>
+      <c r="B13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,6 +566,7 @@
           <t>13.10</t>
         </is>
       </c>
+      <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -555,6 +574,7 @@
           <t>14.10</t>
         </is>
       </c>
+      <c r="D15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -562,6 +582,7 @@
           <t>15.10</t>
         </is>
       </c>
+      <c r="E16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -569,6 +590,7 @@
           <t>16.10</t>
         </is>
       </c>
+      <c r="F17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -576,6 +598,7 @@
           <t>17.10</t>
         </is>
       </c>
+      <c r="G18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -583,6 +606,7 @@
           <t>18.10</t>
         </is>
       </c>
+      <c r="H19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -590,6 +614,7 @@
           <t>19.10</t>
         </is>
       </c>
+      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -597,6 +622,7 @@
           <t>20.10</t>
         </is>
       </c>
+      <c r="C21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -604,6 +630,7 @@
           <t>21.10</t>
         </is>
       </c>
+      <c r="D22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -611,6 +638,7 @@
           <t>22.10</t>
         </is>
       </c>
+      <c r="E23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -618,6 +646,7 @@
           <t>23.10</t>
         </is>
       </c>
+      <c r="F24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -625,6 +654,7 @@
           <t>24.10</t>
         </is>
       </c>
+      <c r="G25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -632,6 +662,7 @@
           <t>25.10</t>
         </is>
       </c>
+      <c r="H26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -639,6 +670,7 @@
           <t>26.10</t>
         </is>
       </c>
+      <c r="B27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -646,6 +678,7 @@
           <t>27.10</t>
         </is>
       </c>
+      <c r="C28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -653,6 +686,7 @@
           <t>28.10</t>
         </is>
       </c>
+      <c r="D29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -660,6 +694,7 @@
           <t>29.10</t>
         </is>
       </c>
+      <c r="E30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -667,6 +702,7 @@
           <t>30.10</t>
         </is>
       </c>
+      <c r="F31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -674,6 +710,7 @@
           <t>31.10</t>
         </is>
       </c>
+      <c r="G32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
